--- a/Output_testing/R1_201907/Country/HKD/MN/LITHUANIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LITHUANIA_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>311.104537</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>41.58245277948285</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>597.931066</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>52.54180102834067</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1263.241308</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>67.34081901391441</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>724.685368</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>66.32568584077293</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>5.541367930225261</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>90.564949</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>12.10497523303163</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>73.64592</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.471463844611638</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>98.425369</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.246855781418716</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>67.08622800000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>6.139961256359277</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>35.64502654689468</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>68.04123800000001</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>9.09444006659586</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>107.135611</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.414292510119731</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>88.196984</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.701601427616635</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>66.874128</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.120549138234618</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>29.48260689497337</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>39.267779</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.24855915560842</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>92.79976499999999</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>8.15456340264276</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>87.203868</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.648660438122154</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>43.100716</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.944725083684007</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-22.71677682600457</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>16.837016</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.250447484690322</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>23.87227</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.097720175045774</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>34.52072</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.840229212762583</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>26.413727</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.417474722472859</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>30.56542223724044</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>22.423584</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.997152120693011</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>24.48776</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.151804926539408</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>51.183518</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.72848900705314</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>15.543817</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.422623346120141</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-45.13990635627526</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.641939</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.08580202144338525</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>4.703336</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.4132947062520276</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>6.167613</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3287828763598868</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>12.752711</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.167171769644684</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>350.6885764307822</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.913004</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1019783435841336</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>12.693876</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.161786989022976</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>28.755238</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.843445479220995</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>31.060823</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.729397542027876</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>32.082657</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.710261044220456</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>11.733872</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.073924136367884</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-28.04979837290453</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>6.031171</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8061305879074544</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.340006</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2056225820136988</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>6.898358</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3677374026872692</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>7.253747</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.6638877586534204</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>366.0413373938296</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>164.435778</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>21.97860256195018</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>180.033664</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.82003928240641</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>206.059004</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.98458545226061</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>104.478281</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.562209958667189</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.60015597915392</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,545 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>4.86197</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>86.13115151966085</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.681774</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>25.10256988983241</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.711466</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>27.58202798653204</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>25.72698219709699</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.506576</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>8.974134807953096</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>75.3531633257064</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.162475565667005</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>7.458242148050655</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>24.47462135563494</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>3.496110167772542</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-11.04389883300053</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PREPARED ADDITIVES FOR MINERAL OILS; PREPARED LIQUIDS FOR HYDRAULIC TRANSMISSIONS; ANTI-FREEZING PREPARATIONS AND PREPARED DE-ICING FLUIDS; LUBRICATING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.062916696561199</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.732136012662959</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.071755467724771</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.9188641132832874</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.1195249825283068</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>68.42236645032452</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.435334116606583</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.634996539966776</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.127753363686245</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1122617184351386</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-82.15934684684684</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>18.08466494081451</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>12.31198063156752</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>27.69656792337995</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.1039001070888572</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-97.29190619329279</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>7.708811834067896</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>5.120180833142468</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>4.638114135259337</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>3.676027264820234</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.109323</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>40.84470533915719</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.262411</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>48.94099722615824</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.5501911148879818</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1848,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>311.104537</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>41.73395379339023</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>597.931066</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>52.66116472309859</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1263.241308</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>67.39116816940091</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>724.685368</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>66.67012741324308</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>5.541367930225261</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>90.564949</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>12.14907835582849</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>73.64592</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.486165621480086</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>98.425369</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.250778732779011</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>67.08622800000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.171847212504883</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>35.64502654689468</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>68.04123800000001</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>9.127574641372291</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>107.135611</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.435679762089519</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>88.196984</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.705116705048377</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>66.874128</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.152334283654981</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>29.48260689497337</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>39.267779</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.26768169361368</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>92.79976499999999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.173088820459178</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>87.203868</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.652136132814174</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>43.100716</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.965210771748333</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-22.71677682600457</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>16.837016</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.258646738290969</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>23.87227</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.102485745044538</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>34.52072</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.841605109107786</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>26.413727</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.430029116509799</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>30.56542223724044</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>22.423584</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.008071909083745</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>24.48776</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.156693365485219</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>51.183518</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.730529034472928</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>15.543817</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.430011292677478</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-45.13990635627526</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>0.641939</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.08611463150784952</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.703336</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4142336231181532</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>6.167613</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.3290286996273425</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>12.752711</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.173233108846578</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>350.6885764307822</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.913004</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1020545904066784</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>12.693876</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.167820364061647</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>28.629269</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.840550192890757</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>31.060823</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.735598147425926</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>32.031137</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.70879128679041</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>11.733872</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.079501223337361</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-27.82177849963622</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>6.031171</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8090676345039455</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.340006</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2060897123867436</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>6.898358</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3680123513430358</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>7.253747</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.6673354507599631</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>366.0413373938296</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>161.845794</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>21.71123878032854</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>177.454209</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.62880047941206</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>204.709011</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.92077918820934</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>98.83343600000001</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.092549762655903</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-9.982629428283063</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2316,457 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>0.09504191635069607</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>22.570585</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>11.52024190063895</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>12.42902</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.40493562132787</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>15.624614</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.648896715920381</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>26.836697</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.269123395697767</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>20.574146</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>10.50124038960724</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>23.55858202069037</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.564985</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.321790760226604</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>17.248466</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.235981441977662</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>38.657695</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.91149753444877</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>19.983563</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.19980119242183</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>26.63501778150672</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>5.772721</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.974804639857965</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1.068483</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.3862975501165505</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>25.22628</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.772909689088142</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>19.383147</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.893343138232536</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>174.811374322919</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>5.696594</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.059537031668862</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>15.69008</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.834544564421233</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>13.604573</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.943903842762665</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>108.4821410784159</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>7.770243</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.004169771798061</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>14.094034</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.095533392163813</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>5.031546</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.550357510282637</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>9.933002</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.069898978672042</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>436.5237395367629</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>12.246407</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>6.310831298652587</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>13.226746</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.781975544593489</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>19.041286</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>5.867143171410862</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>8.190813</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.180669093109382</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-17.37515732720336</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>6.036914</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.110948853690228</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>57.773958</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>20.88749978795778</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>77.643884</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>23.92421309214184</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>8.171687</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.170907000253056</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-88.26382338520462</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>6.491965</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.345446212244713</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>16.164061</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.843927478709984</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>9.321546</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.872224331953852</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>7.906044</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>4.035320278898185</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>35.95782407471895</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>6.4938</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.000918127405253</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>7.320097</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.73624734033883</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>12.72439865718069</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>140.706238</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>72.50888613174951</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>135.698896</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>49.06035105689148</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>100.289751</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>30.90202666679895</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>58.283446</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>29.74842684506528</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-6.234872358505116</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
